--- a/ramasse.xlsx
+++ b/ramasse.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="288" yWindow="132" windowWidth="22068" windowHeight="8184"/>
   </bookViews>
   <sheets>
-    <sheet name="import_ramasse" sheetId="1" r:id="rId1"/>
+    <sheet name="import_tout" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Ste</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Unite</t>
   </si>
   <si>
-    <t>Lot</t>
-  </si>
-  <si>
     <t>Origine</t>
   </si>
   <si>
@@ -57,28 +54,55 @@
     <t>01</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>KG</t>
   </si>
   <si>
-    <t>RA</t>
-  </si>
-  <si>
     <t>Date cde</t>
   </si>
   <si>
-    <t>02170002</t>
-  </si>
-  <si>
-    <t>02170004</t>
+    <t>Lot VIF</t>
+  </si>
+  <si>
+    <t>Lot Achat</t>
+  </si>
+  <si>
+    <t>Ref Cde</t>
+  </si>
+  <si>
+    <t>01000006</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>Lot Fourn</t>
+  </si>
+  <si>
+    <t>134B-01</t>
+  </si>
+  <si>
+    <t>Cde-100</t>
+  </si>
+  <si>
+    <t>0310099</t>
+  </si>
+  <si>
+    <t>0410099</t>
+  </si>
+  <si>
+    <t>0910099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0000000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -103,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,16 +152,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,30 +471,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="5"/>
-    <col min="4" max="4" width="11.5546875" style="4"/>
-    <col min="5" max="5" width="4.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="5"/>
-    <col min="8" max="8" width="8" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="5" customWidth="1"/>
-    <col min="12" max="13" width="11.5546875" style="5"/>
-    <col min="14" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="3.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3"/>
+    <col min="5" max="5" width="4.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="8"/>
+    <col min="8" max="8" width="8" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="4" customWidth="1"/>
+    <col min="13" max="16" width="11.5546875" style="4"/>
+    <col min="17" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -477,7 +514,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -487,244 +524,213 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="9">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44207</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="9">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6">
+        <v>44530</v>
+      </c>
+      <c r="N2" s="11">
+        <v>44530</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1234</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44207</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="9">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5">
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="6">
+        <v>44530</v>
+      </c>
+      <c r="N3" s="11">
+        <v>44530</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4321</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
         <v>17</v>
       </c>
-      <c r="C2" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C4" s="6">
+        <v>44207</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5">
-        <v>4220011</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="7">
-        <v>44165</v>
-      </c>
-      <c r="M2" s="7">
-        <v>44165</v>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="6">
+        <v>44530</v>
+      </c>
+      <c r="N4" s="11">
+        <v>44530</v>
+      </c>
+      <c r="O4" s="4">
+        <v>123456</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44207</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1910099</v>
+      </c>
+      <c r="H5" s="9">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5">
-        <v>4320001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7">
-        <v>44165</v>
-      </c>
-      <c r="M3" s="7">
-        <v>44165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5">
-        <v>4320021</v>
-      </c>
-      <c r="H4" s="3">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7">
-        <v>44165</v>
-      </c>
-      <c r="M4" s="7">
-        <v>44165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4220011</v>
-      </c>
-      <c r="H5" s="3">
-        <v>40</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7">
-        <v>44166</v>
-      </c>
-      <c r="M5" s="7">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4320001</v>
-      </c>
-      <c r="H6" s="3">
-        <v>50</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="7">
-        <v>44166</v>
-      </c>
-      <c r="M6" s="7">
-        <v>44166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7">
-        <v>44158</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4320021</v>
-      </c>
-      <c r="H7" s="3">
-        <v>60</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="7">
-        <v>44166</v>
-      </c>
-      <c r="M7" s="7">
-        <v>44166</v>
+      <c r="J5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="6">
+        <v>44530</v>
+      </c>
+      <c r="N5" s="11">
+        <v>44530</v>
+      </c>
+      <c r="O5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
